--- a/biology/Zoologie/Catonyx/Catonyx.xlsx
+++ b/biology/Zoologie/Catonyx/Catonyx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catonyx est un genre fossile de paresseux terrestre de la famille des Mylodontidae, qui vivait en Amérique du Sud durant le Pléistocène.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peter Wilhelm Lund et son équipe trouvèrent dans une grotte de Lagoa Santa, au Brésil, les fossiles fragmentaires d'un paresseux terrestre éteint, que Lund dénomma Megalonyx cuvieri in 1839. Le genre Catonyx a été créé par Florentino Ameghino en 1891. Il a été inclus dans la sous-famille des Scelidotheriinae par Timothy J. Gaudin en 1995[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peter Wilhelm Lund et son équipe trouvèrent dans une grotte de Lagoa Santa, au Brésil, les fossiles fragmentaires d'un paresseux terrestre éteint, que Lund dénomma Megalonyx cuvieri in 1839. Le genre Catonyx a été créé par Florentino Ameghino en 1891. Il a été inclus dans la sous-famille des Scelidotheriinae par Timothy J. Gaudin en 1995.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catonyx atteignait 4 m de longueur, dont au moins 50 cm pour le crâne. Son poids a été estimé à plus de 1,5 tonne[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catonyx atteignait 4 m de longueur, dont au moins 50 cm pour le crâne. Son poids a été estimé à plus de 1,5 tonne.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catonyx a vécu au Amérique du Sud au Pléistocène, d'environ 2,6 Ma à 9 600 ans AP[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catonyx a vécu au Amérique du Sud au Pléistocène, d'environ 2,6 Ma à 9 600 ans AP.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ci-dessous un arbre phylogénétique des Scelidotheriinae, d'après Nieto et al. 2020[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci-dessous un arbre phylogénétique des Scelidotheriinae, d'après Nieto et al. 2020.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Paléobiologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Catonyx vivait à la surface du sol et non dans les arbres comme les paresseux actuels.
 </t>
@@ -666,7 +688,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Catonyx cuvieri (Lund, 1839) : Brésil
 Catonyx chiliense (Lydekker, 1886) : Chili
